--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P15_trail7 Features.xlsx
@@ -4328,7 +4328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4339,29 +4339,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4382,115 +4380,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4507,72 +4495,66 @@
         <v>3.292971807211592e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.004388854167028996</v>
+        <v>1.384613593781912e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.120966340802659</v>
+        <v>7.123812881893216e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.384613593781912e-06</v>
+        <v>-0.02739357520692098</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.123812881893216e-06</v>
+        <v>0.2058069519850229</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.02739357520692098</v>
+        <v>0.04302622002859165</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2058069519850229</v>
+        <v>1.66902185931297</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04302622002859165</v>
+        <v>1.638404827727203</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.577743027664259</v>
+        <v>3.598381660865415</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.638404827727203</v>
+        <v>3.466995748280347e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.598381660865415</v>
+        <v>16888085.70186556</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.466995748280347e-14</v>
+        <v>6.701845461088317e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>16888085.70186556</v>
+        <v>9.888129772591467</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.701845461088317e-06</v>
+        <v>0.0001690945202120347</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>9.888129772591467</v>
+        <v>10.21312383072328</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001690945202120347</v>
+        <v>1.212026597969056</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.21312383072328</v>
+        <v>0.01763789403117717</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.212026597969056</v>
+        <v>2.685654903328196</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01763789403117717</v>
+        <v>0.9504108348891307</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.685654903328196</v>
+        <v>1.760090686764525</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9504108348891307</v>
+        <v>10</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.760090686764525</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1631195228713896</v>
       </c>
     </row>
@@ -4587,72 +4569,66 @@
         <v>3.180756072674764e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1473001550256905</v>
+        <v>1.070344566286139e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.387085788674267</v>
+        <v>7.117515290269026e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.070344566286139e-06</v>
+        <v>-0.01223490149057684</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.117515290269026e-06</v>
+        <v>0.1720084721578104</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.01223490149057684</v>
+        <v>0.02969268009251457</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1720084721578104</v>
+        <v>1.645544524262917</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02969268009251457</v>
+        <v>1.620918683253073</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.552936542014904</v>
+        <v>3.633707672845514</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.620918683253073</v>
+        <v>3.399912863384095e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.633707672845514</v>
+        <v>16696807.908567</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.399912863384095e-14</v>
+        <v>6.697966948699661e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>16696807.908567</v>
+        <v>9.478392484994375</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.697966948699661e-06</v>
+        <v>0.0001901036846908422</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>9.478392484994375</v>
+        <v>9.876183481196271</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001901036846908422</v>
+        <v>1.32630860787022</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.876183481196271</v>
+        <v>0.01854252333038433</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.32630860787022</v>
+        <v>2.665711578868441</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01854252333038433</v>
+        <v>0.9486169028404154</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.665711578868441</v>
+        <v>1.790040072141855</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9486169028404154</v>
+        <v>10</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.790040072141855</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1467249609738599</v>
       </c>
     </row>
@@ -4667,72 +4643,66 @@
         <v>3.152544614169349e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1714002654416105</v>
+        <v>9.398544082039112e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.409474075538683</v>
+        <v>7.115547999776689e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.398544082039112e-07</v>
+        <v>-0.0009531773368918608</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.115547999776689e-06</v>
+        <v>0.1494087044185006</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0009531773368918608</v>
+        <v>0.02230412884486018</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1494087044185006</v>
+        <v>1.651543683720026</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02230412884486018</v>
+        <v>1.714334229474884</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.562401684064744</v>
+        <v>3.631508631817599</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.714334229474884</v>
+        <v>3.404031708926462e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.631508631817599</v>
+        <v>16520925.15767726</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.404031708926462e-14</v>
+        <v>6.717463058781993e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>16520925.15767726</v>
+        <v>9.290997099602963</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.717463058781993e-06</v>
+        <v>0.0001859611350898083</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>9.290997099602963</v>
+        <v>9.711318718160376</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001859611350898083</v>
+        <v>1.328881927868022</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.711318718160376</v>
+        <v>0.01753794095324096</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.328881927868022</v>
+        <v>2.705433827850202</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01753794095324096</v>
+        <v>0.9478396599268279</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.705433827850202</v>
+        <v>1.803773058254984</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9478396599268279</v>
+        <v>8</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.803773058254984</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1468600219272476</v>
       </c>
     </row>
@@ -4747,72 +4717,66 @@
         <v>3.162593412157164e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.168811046969594</v>
+        <v>9.398544082039112e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.413340376500548</v>
+        <v>7.116517140518287e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.398544082039112e-07</v>
+        <v>0.006450309344194115</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.116517140518287e-06</v>
+        <v>0.1364088532270108</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.006450309344194115</v>
+        <v>0.01863899107661921</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1364088532270108</v>
+        <v>1.659808134654466</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01863899107661921</v>
+        <v>1.55535543557503</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.569926224288512</v>
+        <v>3.641049739451893</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.55535543557503</v>
+        <v>3.386215045153273e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.641049739451893</v>
+        <v>16470251.98132737</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.386215045153273e-14</v>
+        <v>6.777475141719536e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>16470251.98132737</v>
+        <v>9.185758474387873</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.777475141719536e-06</v>
+        <v>0.0001669035238670172</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>9.185758474387873</v>
+        <v>10.18269843904313</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001669035238670172</v>
+        <v>1.177684678036599</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.18269843904313</v>
+        <v>0.01730578367825596</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.177684678036599</v>
+        <v>2.676701379300236</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01730578367825596</v>
+        <v>0.947723506007642</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.676701379300236</v>
+        <v>1.787317717699945</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.947723506007642</v>
+        <v>8</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.787317717699945</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1625802354183195</v>
       </c>
     </row>
@@ -4827,72 +4791,66 @@
         <v>3.187166761767986e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1712888410701788</v>
+        <v>9.398544082039112e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.430640969309985</v>
+        <v>7.119395576379971e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.398544082039112e-07</v>
+        <v>0.0114036820570377</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.119395576379971e-06</v>
+        <v>0.1271515190568432</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0114036820570377</v>
+        <v>0.01628977308537109</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1271515190568432</v>
+        <v>1.671864816544051</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01628977308537109</v>
+        <v>1.590509954209618</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.58109569636668</v>
+        <v>3.900736121977351</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.590509954209618</v>
+        <v>2.950357303195689e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.900736121977351</v>
+        <v>19031669.122303</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.950357303195689e-14</v>
+        <v>5.89086732817482e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>19031669.122303</v>
+        <v>10.68632484063605</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.89086732817482e-06</v>
+        <v>0.0001638648086838236</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>10.68632484063605</v>
+        <v>10.11311376861592</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001638648086838236</v>
+        <v>1.169655442026665</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.11311376861592</v>
+        <v>0.01675928479456444</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.169655442026665</v>
+        <v>2.65524598732108</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01675928479456444</v>
+        <v>0.9488801405482706</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.65524598732108</v>
+        <v>1.766969826564001</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9488801405482706</v>
+        <v>10</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.766969826564001</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1678246414694719</v>
       </c>
     </row>
@@ -4907,72 +4865,66 @@
         <v>3.215156017542577e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.1882070205766615</v>
+        <v>9.398544082039112e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.454691851327293</v>
+        <v>7.123770488725241e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9.398544082039112e-07</v>
+        <v>0.01587899939685928</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.123770488725241e-06</v>
+        <v>0.1182507858113066</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01587899939685928</v>
+        <v>0.01422849529860115</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1182507858113066</v>
+        <v>1.696236796071143</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01422849529860115</v>
+        <v>1.718315654104552</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.608005930333178</v>
+        <v>3.911791503908685</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.718315654104552</v>
+        <v>2.933704454618583e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.911791503908685</v>
+        <v>19356487.78873881</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.933704454618583e-14</v>
+        <v>5.841967553755637e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>19356487.78873881</v>
+        <v>10.99181666600968</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.841967553755637e-06</v>
+        <v>0.0001679302186754963</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>10.99181666600968</v>
+        <v>9.388408856199593</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001679302186754963</v>
+        <v>1.267606014917444</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.388408856199593</v>
+        <v>0.01480174242208035</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.267606014917444</v>
+        <v>2.774154179097746</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01480174242208035</v>
+        <v>0.9495471734678667</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.774154179097746</v>
+        <v>1.767175688603523</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9495471734678667</v>
+        <v>10</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.767175688603523</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1614201431063996</v>
       </c>
     </row>
@@ -4987,72 +4939,66 @@
         <v>3.240985444678714e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.2216052589032317</v>
+        <v>9.398544082039112e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.473039549828525</v>
+        <v>7.129641303400165e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9.398544082039112e-07</v>
+        <v>0.02044349497300669</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.129641303400165e-06</v>
+        <v>0.1097570974715279</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.02044349497300669</v>
+        <v>0.01245923136757657</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1097570974715279</v>
+        <v>1.698783977310944</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01245923136757657</v>
+        <v>1.651823029428077</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.609285791724066</v>
+        <v>3.869395888622684</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.651823029428077</v>
+        <v>2.998343784517696e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.869395888622684</v>
+        <v>18928424.41475806</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.998343784517696e-14</v>
+        <v>5.976568847553509e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>18928424.41475806</v>
+        <v>10.74262354896129</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.976568847553509e-06</v>
+        <v>0.000176898923972269</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>10.74262354896129</v>
+        <v>9.202362140973163</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.000176898923972269</v>
+        <v>1.367454707598585</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.202362140973163</v>
+        <v>0.01498041453967173</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.367454707598585</v>
+        <v>2.808205611108031</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01498041453967173</v>
+        <v>0.9516052421372682</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.808205611108031</v>
+        <v>1.762728219020804</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9516052421372682</v>
+        <v>10</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.762728219020804</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1605527617103213</v>
       </c>
     </row>
@@ -5067,72 +5013,66 @@
         <v>3.260940203210932e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.2693960136837002</v>
+        <v>9.398544082039112e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.475083868535977</v>
+        <v>7.137010612577316e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>9.398544082039112e-07</v>
+        <v>0.02475201019198911</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.137010612577316e-06</v>
+        <v>0.1026188162021239</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.02475201019198911</v>
+        <v>0.01113955067488859</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1026188162021239</v>
+        <v>1.698272357652504</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01113955067488859</v>
+        <v>1.571872444840903</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.609834636380497</v>
+        <v>3.975712471064139</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.571872444840903</v>
+        <v>2.840127404046708e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.975712471064139</v>
+        <v>19834277.80913199</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.840127404046708e-14</v>
+        <v>5.713155621671964e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>19834277.80913199</v>
+        <v>11.17302077006483</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.713155621671964e-06</v>
+        <v>0.0001707010584567422</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>11.17302077006483</v>
+        <v>9.850966882538231</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001707010584567422</v>
+        <v>1.262374427950425</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.850966882538231</v>
+        <v>0.01656509504679296</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.262374427950425</v>
+        <v>2.789297589846631</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01656509504679296</v>
+        <v>0.9519253042749561</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.789297589846631</v>
+        <v>1.750862985088606</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9519253042749561</v>
+        <v>10</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.750862985088606</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1710838016816769</v>
       </c>
     </row>
@@ -5147,72 +5087,66 @@
         <v>3.272132161554603e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.3278087533552513</v>
+        <v>9.398544082039112e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.455313028826652</v>
+        <v>7.145731566869492e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9.398544082039112e-07</v>
+        <v>0.02849005873558988</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.145731566869492e-06</v>
+        <v>0.09723570690976008</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.02849005873558988</v>
+        <v>0.0102640393083064</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.09723570690976008</v>
+        <v>1.710770771183934</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.0102640393083064</v>
+        <v>1.541420163344157</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.627122354750597</v>
+        <v>4.301502397825729</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.541420163344157</v>
+        <v>2.270046971608492e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.301502397825729</v>
+        <v>25690742.69260969</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.270046971608492e-14</v>
+        <v>4.447675191185859e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>25690742.69260969</v>
+        <v>14.98263372353608</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.447675191185859e-06</v>
+        <v>0.000161196526732199</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>14.98263372353608</v>
+        <v>10.47687137379174</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000161196526732199</v>
+        <v>1.164155183736263</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.47687137379174</v>
+        <v>0.01769370996315302</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.164155183736263</v>
+        <v>2.664412270949897</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01769370996315302</v>
+        <v>0.9525925799866458</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.664412270949897</v>
+        <v>1.773379333350946</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9525925799866458</v>
+        <v>36</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.773379333350946</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1856674954692086</v>
       </c>
     </row>
@@ -5227,72 +5161,66 @@
         <v>3.272865469314723e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.3932262041906806</v>
+        <v>9.398544082039112e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.412659046324135</v>
+        <v>7.155594077108597e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>9.398544082039112e-07</v>
+        <v>0.03167229514009783</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.155594077108597e-06</v>
+        <v>0.09347817496551769</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.03167229514009783</v>
+        <v>0.00973978849269711</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.09347817496551769</v>
+        <v>1.770527897672838</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.00973978849269711</v>
+        <v>1.786445940366813</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.698317902975233</v>
+        <v>3.824097377564001</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.786445940366813</v>
+        <v>2.088531944962728e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.824097377564001</v>
+        <v>27609433.7264356</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.088531944962728e-14</v>
+        <v>4.201219077410034e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>27609433.7264356</v>
+        <v>15.92047865938062</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.201219077410034e-06</v>
+        <v>0.0001546904138414571</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>15.92047865938062</v>
+        <v>9.086149437513658</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001546904138414571</v>
+        <v>1.237949559243037</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.086149437513658</v>
+        <v>0.01277094844950156</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.237949559243037</v>
+        <v>2.833681207447032</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01277094844950156</v>
+        <v>0.9552714540877537</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.833681207447032</v>
+        <v>1.699036555258327</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9552714540877537</v>
+        <v>39</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.699036555258327</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1785487736539266</v>
       </c>
     </row>
@@ -5307,72 +5235,66 @@
         <v>3.262887230065702e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.4628947247043761</v>
+        <v>9.398544082039112e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.348378855348546</v>
+        <v>7.166443728926595e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>9.398544082039112e-07</v>
+        <v>0.03470625133486424</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.166443728926595e-06</v>
+        <v>0.09099904586745092</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.03470625133486424</v>
+        <v>0.009484310173871772</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.09099904586745092</v>
+        <v>1.794511691002391</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.009484310173871772</v>
+        <v>1.59064052077991</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.72571452242618</v>
+        <v>3.999600492427695</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.59064052077991</v>
+        <v>1.909263110179791e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.999600492427695</v>
+        <v>28330173.84818684</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.909263110179791e-14</v>
+        <v>4.106817985473259e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>28330173.84818684</v>
+        <v>15.3237218616403</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.106817985473259e-06</v>
+        <v>0.0001484078513992037</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>15.3237218616403</v>
+        <v>8.417962194348593</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001484078513992037</v>
+        <v>1.332265095105205</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.417962194348593</v>
+        <v>0.01051649015235097</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.332265095105205</v>
+        <v>2.948899442579625</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01051649015235097</v>
+        <v>0.9563883684902466</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.948899442579625</v>
+        <v>1.673869180100876</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9563883684902466</v>
+        <v>39</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.673869180100876</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1961580593101361</v>
       </c>
     </row>
@@ -5387,72 +5309,66 @@
         <v>3.243525389608077e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.5346481149254187</v>
+        <v>9.398544082039112e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.264592266635235</v>
+        <v>7.178260796973524e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>9.398544082039112e-07</v>
+        <v>0.03793555442069838</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.178260796973524e-06</v>
+        <v>0.08965962704332713</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.03793555442069838</v>
+        <v>0.009477138889005468</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.08965962704332713</v>
+        <v>1.783859279883499</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.009477138889005468</v>
+        <v>1.649536255879736</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.710437390406367</v>
+        <v>3.967217338002972</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.649536255879736</v>
+        <v>1.317026143256159e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.967217338002972</v>
+        <v>41146414.86337607</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.317026143256159e-14</v>
+        <v>2.821691595488487e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>41146414.86337607</v>
+        <v>22.29761420946096</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.821691595488487e-06</v>
+        <v>0.0001414638345147609</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>22.29761420946096</v>
+        <v>9.355825118663263</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001414638345147609</v>
+        <v>1.427797389728287</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.355825118663263</v>
+        <v>0.01238253648876135</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.427797389728287</v>
+        <v>2.980057414708291</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01238253648876135</v>
+        <v>0.9573917379693585</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.980057414708291</v>
+        <v>1.671103925800624</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9573917379693585</v>
+        <v>40</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.671103925800624</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2575893305988492</v>
       </c>
     </row>
@@ -5467,72 +5383,66 @@
         <v>3.216221148331086e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.6067976478875287</v>
+        <v>9.398544082039112e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.163116174398462</v>
+        <v>7.190986208143932e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>9.398544082039112e-07</v>
+        <v>0.04064533926827053</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.190986208143932e-06</v>
+        <v>0.08910394927499479</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.04064533926827053</v>
+        <v>0.009591394850367382</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.08910394927499479</v>
+        <v>1.755380558409597</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.009591394850367382</v>
+        <v>1.689707539167461</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.671329905314606</v>
+        <v>4.138877499658239</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.689707539167461</v>
+        <v>1.188766264120479e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.138877499658239</v>
+        <v>45462010.40421499</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.188766264120479e-14</v>
+        <v>2.530453143931115e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>45462010.40421499</v>
+        <v>24.56935445697087</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.530453143931115e-06</v>
+        <v>0.00012852112636183</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>24.56935445697087</v>
+        <v>8.330070966642692</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.00012852112636183</v>
+        <v>1.564183753551629</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.330070966642692</v>
+        <v>0.008918091536731778</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.564183753551629</v>
+        <v>3.185320277005234</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.008918091536731778</v>
+        <v>0.9554938167307602</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.185320277005234</v>
+        <v>1.730876676518185</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9554938167307602</v>
+        <v>40</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.730876676518185</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.277426722137844</v>
       </c>
     </row>
@@ -5547,72 +5457,66 @@
         <v>3.179367569240266e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.6796399070674846</v>
+        <v>9.398544082039112e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.043978029471388</v>
+        <v>7.204249747072601e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>9.398544082039112e-07</v>
+        <v>0.04208959894913155</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.204249747072601e-06</v>
+        <v>0.08936773167229876</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.04208959894913155</v>
+        <v>0.009758139828778488</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.08936773167229876</v>
+        <v>1.752517039475493</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.009758139828778488</v>
+        <v>1.873317473687057</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.67090271327063</v>
+        <v>4.042927400714457</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.873317473687057</v>
+        <v>1.268087815276844e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.042927400714457</v>
+        <v>42891377.30052851</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.268087815276844e-14</v>
+        <v>2.683234590966406e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>42891377.30052851</v>
+        <v>23.32863424013637</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.683234590966406e-06</v>
+        <v>0.0001223448412506708</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>23.32863424013637</v>
+        <v>7.127358815490481</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001223448412506708</v>
+        <v>1.636128809579279</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.127358815490481</v>
+        <v>0.006215025404264865</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.636128809579279</v>
+        <v>3.232307305427907</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.006215025404264865</v>
+        <v>0.9553114883938807</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.232307305427907</v>
+        <v>1.718320554841663</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9553114883938807</v>
+        <v>40</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.718320554841663</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2629495463153919</v>
       </c>
     </row>
@@ -5627,72 +5531,66 @@
         <v>3.130912255721699e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.7542920772035556</v>
+        <v>9.398544082039112e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9057900004675998</v>
+        <v>7.217689117722304e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>9.398544082039112e-07</v>
+        <v>0.04306114666144371</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.217689117722304e-06</v>
+        <v>0.09046478255999317</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04306114666144371</v>
+        <v>0.01003822441973934</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.09046478255999317</v>
+        <v>1.76348005570685</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01003822441973934</v>
+        <v>1.703793116466435</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.682224152035175</v>
+        <v>4.076895103981799</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.703793116466435</v>
+        <v>1.247045042120664e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.076895103981799</v>
+        <v>43393917.38829266</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.247045042120664e-14</v>
+        <v>2.664169406200873e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>43393917.38829266</v>
+        <v>23.48225802436098</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.664169406200873e-06</v>
+        <v>0.0001250759117218205</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>23.48225802436098</v>
+        <v>7.729382213185506</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001250759117218205</v>
+        <v>1.405236682970158</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.729382213185506</v>
+        <v>0.007472453895208645</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.405236682970158</v>
+        <v>3.029376024177437</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.007472453895208645</v>
+        <v>0.9567672064617806</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.029376024177437</v>
+        <v>1.72250908460159</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9567672064617806</v>
+        <v>42</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.72250908460159</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2668058216996568</v>
       </c>
     </row>
@@ -5707,72 +5605,66 @@
         <v>3.070876366758856e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.8307713631499901</v>
+        <v>9.398544082039112e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.7470644647801628</v>
+        <v>7.231202475710903e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9.398544082039112e-07</v>
+        <v>0.04403822885979357</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.231202475710903e-06</v>
+        <v>0.09212301119946519</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04403822885979357</v>
+        <v>0.01042619993743901</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.09212301119946519</v>
+        <v>1.772797819498984</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01042619993743901</v>
+        <v>1.677465855775903</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.692358361970719</v>
+        <v>4.162574251430387</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.677465855775903</v>
+        <v>1.054380827674086e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.162574251430387</v>
+        <v>51737534.93008077</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.054380827674086e-14</v>
+        <v>2.241752156516162e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>51737534.93008077</v>
+        <v>28.22337625809051</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.241752156516162e-06</v>
+        <v>0.0001288288799057939</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>28.22337625809051</v>
+        <v>7.974394604501412</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001288288799057939</v>
+        <v>1.364662451404962</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.974394604501412</v>
+        <v>0.008192353348112162</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.364662451404962</v>
+        <v>2.864785656030958</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.008192353348112162</v>
+        <v>0.9558159327354481</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.864785656030958</v>
+        <v>1.714828894142719</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9558159327354481</v>
+        <v>58</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.714828894142719</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2606009108846324</v>
       </c>
     </row>
@@ -6149,7 +6041,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.691227460538452</v>
+        <v>1.717359261110172</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.506355665093265</v>
@@ -6238,7 +6130,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.710721403857539</v>
+        <v>1.739482654147332</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.314407083855346</v>
@@ -6327,7 +6219,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.73526218624494</v>
+        <v>1.77172420135535</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.569762653019819</v>
@@ -6416,7 +6308,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.736288119931233</v>
+        <v>1.772472137271278</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.458049579806037</v>
@@ -6505,7 +6397,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.780640373003042</v>
+        <v>1.814840876591754</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.379067711729041</v>
@@ -6594,7 +6486,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.795475173690362</v>
+        <v>1.826533435238854</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.455143294609416</v>
@@ -6683,7 +6575,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.850186039702086</v>
+        <v>1.870302745447439</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.700662857494439</v>
@@ -6772,7 +6664,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.853652575131155</v>
+        <v>1.872424841417954</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.31504103661035</v>
@@ -6861,7 +6753,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.862108963639678</v>
+        <v>1.880607495462578</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.987981288038119</v>
@@ -6950,7 +6842,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.863476061915114</v>
+        <v>1.886409000333884</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.192229862564956</v>
@@ -7039,7 +6931,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.863750177765212</v>
+        <v>1.886579437826043</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.041970142535167</v>
@@ -7128,7 +7020,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.866597820253343</v>
+        <v>1.88904101287606</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.910847563231068</v>
@@ -7217,7 +7109,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.868106936020645</v>
+        <v>1.890066624265331</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.145505482947378</v>
@@ -7306,7 +7198,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.864732220527475</v>
+        <v>1.888316181357659</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.181502059148972</v>
@@ -7395,7 +7287,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.877394173032255</v>
+        <v>1.897230839767365</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.970590522560362</v>
@@ -7484,7 +7376,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.902245775186392</v>
+        <v>1.918286094419557</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.905414069579005</v>
@@ -7573,7 +7465,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.891822305738466</v>
+        <v>1.907935554368267</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.125055620548748</v>
@@ -7662,7 +7554,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.827997454974624</v>
+        <v>1.847807068146911</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.964593888451151</v>
@@ -7751,7 +7643,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.8285267412175</v>
+        <v>1.850184455780628</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.926801503188926</v>
@@ -7840,7 +7732,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.798723998345246</v>
+        <v>1.820520283675145</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.77074085691803</v>
@@ -7929,7 +7821,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.796669169785044</v>
+        <v>1.814948190650283</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.849971827302888</v>
@@ -8018,7 +7910,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.794977097126007</v>
+        <v>1.816334951784432</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.684551532763582</v>
@@ -8107,7 +7999,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.797948163974297</v>
+        <v>1.820909508909816</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.808510246995847</v>
@@ -8196,7 +8088,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.795691549153624</v>
+        <v>1.819621052477371</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.68301193909101</v>
@@ -8285,7 +8177,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.79572346757553</v>
+        <v>1.819489469815973</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.718412860625918</v>
@@ -8374,7 +8266,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.793623366517365</v>
+        <v>1.818155558957695</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.852528124642823</v>
@@ -8463,7 +8355,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.798917326462725</v>
+        <v>1.822586307782007</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.904331699552709</v>
@@ -8552,7 +8444,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.799975500093906</v>
+        <v>1.822359843981806</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.806431841068371</v>
@@ -8641,7 +8533,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.748687525976307</v>
+        <v>1.773793836975938</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.620952371137989</v>
@@ -8730,7 +8622,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.735072976207823</v>
+        <v>1.752858767829813</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.774143793018192</v>
@@ -8819,7 +8711,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.730229472793991</v>
+        <v>1.753008639538253</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.784718208343722</v>
@@ -8908,7 +8800,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.747225027853763</v>
+        <v>1.763006740958306</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.274539524170255</v>
@@ -8997,7 +8889,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.801410641316317</v>
+        <v>1.81407450327009</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.749299276560074</v>
@@ -9086,7 +8978,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.798504282302092</v>
+        <v>1.810160140290295</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.722684110473292</v>
@@ -9175,7 +9067,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.831058840130051</v>
+        <v>1.840434756295114</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.930267976851712</v>
@@ -9264,7 +9156,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.835383819589802</v>
+        <v>1.845912867055532</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.927193136908284</v>
@@ -9353,7 +9245,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.838370313407693</v>
+        <v>1.849766353043863</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.956081659070217</v>
@@ -9442,7 +9334,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.841919558056588</v>
+        <v>1.853371093161222</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.948955468171939</v>
@@ -9531,7 +9423,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.83810787729925</v>
+        <v>1.846423168990519</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.987342386437212</v>
@@ -9620,7 +9512,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.822903098881187</v>
+        <v>1.83294420952728</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.977944610054772</v>
@@ -9709,7 +9601,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.825868394113067</v>
+        <v>1.832683194768056</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.956889416260412</v>
@@ -9798,7 +9690,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.818404803686797</v>
+        <v>1.821538956911804</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.932863105742884</v>
@@ -9887,7 +9779,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.818688917872145</v>
+        <v>1.82176293822074</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.949674039122203</v>
@@ -9976,7 +9868,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.878422104926954</v>
+        <v>1.869234470745806</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.89975106525427</v>
@@ -10065,7 +9957,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.891826072140818</v>
+        <v>1.884955466541917</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.190611835694618</v>
@@ -10154,7 +10046,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.897350487639363</v>
+        <v>1.888206452343278</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.541356352258023</v>
@@ -10243,7 +10135,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.895664791611809</v>
+        <v>1.890112817008248</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.727552878745602</v>
@@ -10332,7 +10224,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.858998149235257</v>
+        <v>1.859867201016038</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.000689526471659</v>
@@ -10421,7 +10313,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.868866382917799</v>
+        <v>1.869035866855556</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.067366376320766</v>
@@ -10510,7 +10402,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.86511131508601</v>
+        <v>1.868106704268057</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.95509594929728</v>
@@ -10599,7 +10491,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.864592829682421</v>
+        <v>1.867971839964408</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.280338079167847</v>
@@ -10688,7 +10580,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.860402435853335</v>
+        <v>1.863852258788922</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.008377075327092</v>
@@ -10777,7 +10669,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.860275016655261</v>
+        <v>1.86009294927984</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.062083593620742</v>
@@ -10866,7 +10758,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.832141987049701</v>
+        <v>1.82949517500185</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.135017565699575</v>
@@ -10955,7 +10847,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.836064218394918</v>
+        <v>1.834556817580591</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.049096883846834</v>
@@ -11044,7 +10936,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.836257634352925</v>
+        <v>1.836579726693538</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.892602131726416</v>
@@ -11133,7 +11025,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.840134772698121</v>
+        <v>1.843057696121674</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.882641240556622</v>
@@ -11222,7 +11114,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.838182175998823</v>
+        <v>1.840850883429432</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.940300086714261</v>
@@ -11311,7 +11203,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.839605829135394</v>
+        <v>1.844651444601439</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.853056802738144</v>
@@ -11400,7 +11292,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.840192678192481</v>
+        <v>1.847252686392076</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.886457710225518</v>
@@ -11489,7 +11381,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.815159116620599</v>
+        <v>1.817492351729661</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.688852867355546</v>
@@ -11775,7 +11667,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.557600518491943</v>
+        <v>1.598840070228074</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.250813210260294</v>
@@ -11864,7 +11756,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.57252980359247</v>
+        <v>1.610963594463767</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.665269103702964</v>
@@ -11953,7 +11845,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.584167255573115</v>
+        <v>1.620633920697328</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.110035248756499</v>
@@ -12042,7 +11934,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.548354841400974</v>
+        <v>1.580239495111724</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.744561961442331</v>
@@ -12131,7 +12023,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.54519813323778</v>
+        <v>1.578755287896992</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.060659734218185</v>
@@ -12220,7 +12112,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.559800668758442</v>
+        <v>1.592079336958801</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.575282943494184</v>
@@ -12309,7 +12201,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.582685451890008</v>
+        <v>1.611773696982125</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.981073275970247</v>
@@ -12398,7 +12290,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.603489761584445</v>
+        <v>1.62958772918562</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.075045878316636</v>
@@ -12487,7 +12379,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.621978096099903</v>
+        <v>1.647504466343952</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.557263038666004</v>
@@ -12576,7 +12468,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.639195612425817</v>
+        <v>1.66700552068967</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.036091828336617</v>
@@ -12665,7 +12557,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.666684016685328</v>
+        <v>1.690061385541814</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.047147096024758</v>
@@ -12754,7 +12646,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.667614058379839</v>
+        <v>1.689007632498747</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.071268878909652</v>
@@ -12843,7 +12735,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.685686553405665</v>
+        <v>1.698506720114153</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.756278308422061</v>
@@ -12932,7 +12824,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.687743343092672</v>
+        <v>1.691196111969967</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.793020490982807</v>
@@ -13021,7 +12913,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.688821360473827</v>
+        <v>1.693354428998043</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.813416940535531</v>
@@ -13110,7 +13002,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.663455910179429</v>
+        <v>1.666039562249429</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.721157587266217</v>
@@ -13199,7 +13091,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.648430535330826</v>
+        <v>1.649817973649893</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.56005305492402</v>
@@ -13288,7 +13180,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.635034913451953</v>
+        <v>1.633900700076853</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.591363191099124</v>
@@ -13377,7 +13269,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.655143262166591</v>
+        <v>1.65650195445909</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.743866998436541</v>
@@ -13466,7 +13358,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.655637733331829</v>
+        <v>1.654932284256774</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.5434019022837</v>
@@ -13555,7 +13447,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.642259616523947</v>
+        <v>1.646040628662548</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.716367052931786</v>
@@ -13644,7 +13536,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.64273550595613</v>
+        <v>1.645739776030867</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.61589640958883</v>
@@ -13733,7 +13625,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.606310161099266</v>
+        <v>1.615236928930961</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.789885134648891</v>
@@ -13822,7 +13714,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.580026884304154</v>
+        <v>1.595159607576834</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.722163548047755</v>
@@ -13911,7 +13803,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.573444614237584</v>
+        <v>1.588374267256698</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.677626937358415</v>
@@ -14000,7 +13892,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.547256092218726</v>
+        <v>1.562671138632715</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.574296115261969</v>
@@ -14089,7 +13981,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.532322719766715</v>
+        <v>1.548775134845054</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.676878950441987</v>
@@ -14178,7 +14070,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.519986419557663</v>
+        <v>1.536105829131002</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.74232189116145</v>
@@ -14267,7 +14159,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.513697258658458</v>
+        <v>1.533458571043312</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.943100867096783</v>
@@ -14356,7 +14248,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.486997943205624</v>
+        <v>1.507359043471812</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.449128034872473</v>
@@ -14445,7 +14337,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.487984092214473</v>
+        <v>1.516008242602948</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.435435743222825</v>
@@ -14534,7 +14426,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.494737682149219</v>
+        <v>1.527333753448301</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.54386612552991</v>
@@ -14623,7 +14515,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.497614952743762</v>
+        <v>1.530847565197043</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.380183790868935</v>
@@ -14712,7 +14604,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.492050163348519</v>
+        <v>1.518792707782222</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.354344401602668</v>
@@ -14801,7 +14693,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.498997301457533</v>
+        <v>1.530957960660044</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.4669837261707</v>
@@ -14890,7 +14782,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.499784913435546</v>
+        <v>1.527499846110998</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.321342606076762</v>
@@ -14979,7 +14871,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.500791122177136</v>
+        <v>1.527710741976122</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.604825695255692</v>
@@ -15068,7 +14960,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.522851700676015</v>
+        <v>1.543985670810846</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.267614653543066</v>
@@ -15157,7 +15049,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.519079393901436</v>
+        <v>1.542685859667913</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.461942803327555</v>
@@ -15246,7 +15138,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.50790463114326</v>
+        <v>1.531434005886551</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.345453083091972</v>
@@ -15335,7 +15227,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.53954330143838</v>
+        <v>1.558971805369842</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.355818570138882</v>
@@ -15424,7 +15316,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.557976909195067</v>
+        <v>1.5813990418437</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.505112520412782</v>
@@ -15513,7 +15405,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.561739252336427</v>
+        <v>1.586285745269916</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.301310382353575</v>
@@ -15602,7 +15494,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.592323772414452</v>
+        <v>1.613370788945811</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.580899723151819</v>
@@ -15691,7 +15583,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.648929115839437</v>
+        <v>1.661731394440669</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.627199447247535</v>
@@ -15780,7 +15672,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.659206246471271</v>
+        <v>1.670186704676192</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.94761594692018</v>
@@ -15869,7 +15761,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.657571308241189</v>
+        <v>1.669360513732578</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.990258990050343</v>
@@ -15958,7 +15850,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.654235710184685</v>
+        <v>1.664854950009193</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.095677170932214</v>
@@ -16047,7 +15939,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.672296631002346</v>
+        <v>1.680965259457712</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.738802259909982</v>
@@ -16136,7 +16028,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.667590837822043</v>
+        <v>1.673745484502045</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.041101795976248</v>
@@ -16225,7 +16117,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.657239159307828</v>
+        <v>1.665205914406102</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.925556012397766</v>
@@ -16314,7 +16206,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.655722571801315</v>
+        <v>1.660997049096392</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.025096429233204</v>
@@ -16403,7 +16295,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.667531053066028</v>
+        <v>1.670778691115548</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.729572723274375</v>
@@ -16492,7 +16384,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.674354340315794</v>
+        <v>1.674929024146154</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.22080169202597</v>
@@ -16581,7 +16473,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.696186763009886</v>
+        <v>1.694818244931935</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.180281988130133</v>
@@ -16670,7 +16562,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.692135338297437</v>
+        <v>1.694550268588477</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.981174737294547</v>
@@ -16759,7 +16651,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.702523362311043</v>
+        <v>1.701642170019155</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.777144109069322</v>
@@ -16848,7 +16740,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.717457673846341</v>
+        <v>1.70812089350453</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.378403101371927</v>
@@ -16937,7 +16829,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.706297132315659</v>
+        <v>1.696843988751296</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.087350361739783</v>
@@ -17026,7 +16918,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.708453467009786</v>
+        <v>1.699938062331944</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.248184480720019</v>
@@ -17115,7 +17007,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.702069538559709</v>
+        <v>1.692867254448546</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.144461550730999</v>
@@ -17401,7 +17293,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.706638991096458</v>
+        <v>1.720911179365167</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.097698072922256</v>
@@ -17490,7 +17382,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.708932505145584</v>
+        <v>1.727341884332265</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.895671292549639</v>
@@ -17579,7 +17471,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.71509416037227</v>
+        <v>1.734119878424947</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.203427426852076</v>
@@ -17668,7 +17560,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.705264613713553</v>
+        <v>1.725128543287552</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.904103710685769</v>
@@ -17757,7 +17649,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.731314033018899</v>
+        <v>1.747365495846076</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.9178041148226</v>
@@ -17846,7 +17738,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.736727479524556</v>
+        <v>1.754079112976331</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.905615598471174</v>
@@ -17935,7 +17827,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.756440941210105</v>
+        <v>1.770130694188257</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.842002080803154</v>
@@ -18024,7 +17916,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.760960817619378</v>
+        <v>1.773891022251978</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.849630207936846</v>
@@ -18113,7 +18005,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.755226739578258</v>
+        <v>1.773164004102757</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.058992912033676</v>
@@ -18202,7 +18094,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.762024309768353</v>
+        <v>1.77354856761843</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.902102010109741</v>
@@ -18291,7 +18183,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.771333322554625</v>
+        <v>1.78074848999313</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.75391638081584</v>
@@ -18380,7 +18272,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.795237612887103</v>
+        <v>1.802566834971952</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.498751152583826</v>
@@ -18469,7 +18361,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.80075095193786</v>
+        <v>1.80883813604663</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.19230350152743</v>
@@ -18558,7 +18450,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.771343461894693</v>
+        <v>1.78502981376196</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.019578936197373</v>
@@ -18647,7 +18539,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.772786079928227</v>
+        <v>1.787163921616353</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.994753506406672</v>
@@ -18736,7 +18628,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.781455489692123</v>
+        <v>1.793879287217771</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.833910219719412</v>
@@ -18825,7 +18717,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.779821733641881</v>
+        <v>1.792070136763215</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.912393271622026</v>
@@ -18914,7 +18806,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.778861085927997</v>
+        <v>1.787515323132777</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.809468089451926</v>
@@ -19003,7 +18895,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.775829470280639</v>
+        <v>1.784497298885866</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.896181755667436</v>
@@ -19092,7 +18984,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.757510752121181</v>
+        <v>1.771656167233841</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.005932625560431</v>
@@ -19181,7 +19073,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.752744062669854</v>
+        <v>1.766520991062662</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.054075963113138</v>
@@ -19270,7 +19162,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.744009253483798</v>
+        <v>1.757226820653928</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.82761242563832</v>
@@ -19359,7 +19251,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.721488330548828</v>
+        <v>1.742222373727491</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.834470129879947</v>
@@ -19448,7 +19340,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.732977950068312</v>
+        <v>1.75092866797824</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.847579671122316</v>
@@ -19537,7 +19429,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.720908014656748</v>
+        <v>1.745088563973628</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.903714829766633</v>
@@ -19626,7 +19518,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.720550379424431</v>
+        <v>1.744942619341658</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.024467179744658</v>
@@ -19715,7 +19607,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.723476602565474</v>
+        <v>1.749263989884552</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.974087017078227</v>
@@ -19804,7 +19696,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.717901739201375</v>
+        <v>1.742081378117215</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.986606547724251</v>
@@ -19893,7 +19785,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.719658762371362</v>
+        <v>1.739367899451812</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.108426755250723</v>
@@ -19982,7 +19874,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.704500037074464</v>
+        <v>1.727922362670118</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.080446945860158</v>
@@ -20071,7 +19963,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.705259465163644</v>
+        <v>1.728675455883394</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.899586645293967</v>
@@ -20160,7 +20052,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.711788903398752</v>
+        <v>1.731548672408752</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.078587903083704</v>
@@ -20249,7 +20141,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.713333463205127</v>
+        <v>1.739086720156243</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.761832210329598</v>
@@ -20338,7 +20230,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.716645355743805</v>
+        <v>1.741583399551569</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.946669034056648</v>
@@ -20427,7 +20319,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.738786335106362</v>
+        <v>1.761873763431822</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.965466909830196</v>
@@ -20516,7 +20408,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.728979280337296</v>
+        <v>1.757578161919046</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.890670690301215</v>
@@ -20605,7 +20497,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.757568197438867</v>
+        <v>1.785307398228684</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.695415650270533</v>
@@ -20694,7 +20586,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.768202003492076</v>
+        <v>1.794609732063669</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.086814029973107</v>
@@ -20783,7 +20675,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.766311097616565</v>
+        <v>1.786829026521263</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.935378724945708</v>
@@ -20872,7 +20764,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.76926078069369</v>
+        <v>1.783890475081281</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.2021929114696</v>
@@ -20961,7 +20853,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.766606898271341</v>
+        <v>1.782429966954238</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.998894583505599</v>
@@ -21050,7 +20942,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.759747730857694</v>
+        <v>1.776234862166043</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.023987707690934</v>
@@ -21139,7 +21031,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.755021443647461</v>
+        <v>1.774760017041845</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.12222714039134</v>
@@ -21228,7 +21120,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.779167387243625</v>
+        <v>1.7943143840254</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.147474556788604</v>
@@ -21317,7 +21209,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.782292183231841</v>
+        <v>1.800503706747847</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.611020963594183</v>
@@ -21406,7 +21298,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.782685530077766</v>
+        <v>1.797581313648216</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.449555401008014</v>
@@ -21495,7 +21387,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.782958064135109</v>
+        <v>1.798469875410638</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.086971985732003</v>
@@ -21584,7 +21476,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.781355232522176</v>
+        <v>1.793119132382277</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.456839618093334</v>
@@ -21673,7 +21565,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.781638864879548</v>
+        <v>1.790887231725923</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.155729323050421</v>
@@ -21762,7 +21654,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.781644223497648</v>
+        <v>1.788294513411916</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.376087877561375</v>
@@ -21851,7 +21743,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.789005395153083</v>
+        <v>1.790605277057267</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.195935526812989</v>
@@ -21940,7 +21832,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.767558046409513</v>
+        <v>1.77170995668109</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.222742992613414</v>
@@ -22029,7 +21921,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.76655889563869</v>
+        <v>1.770439470060592</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.105302086512836</v>
@@ -22118,7 +22010,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.752074526540744</v>
+        <v>1.755720394041479</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.201764118963346</v>
@@ -22207,7 +22099,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.756603909274797</v>
+        <v>1.764493050398491</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.023946758571782</v>
@@ -22296,7 +22188,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.761629261785818</v>
+        <v>1.770922895848715</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.156715518733896</v>
@@ -22385,7 +22277,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.780619503720523</v>
+        <v>1.781773087659972</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.987883596962385</v>
@@ -22474,7 +22366,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.780121825863802</v>
+        <v>1.782661225118586</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.175298647809799</v>
@@ -22563,7 +22455,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.794055350176348</v>
+        <v>1.792451373411809</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.979065841282709</v>
@@ -22652,7 +22544,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.797076505098766</v>
+        <v>1.796202208318295</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.183169159220395</v>
@@ -22741,7 +22633,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.783825504640397</v>
+        <v>1.780287984733203</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.335652063564741</v>
@@ -23027,7 +22919,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.806386840433948</v>
+        <v>1.805089438460945</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.507122110484649</v>
@@ -23116,7 +23008,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.804719333632802</v>
+        <v>1.800713162572216</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.21003517835341</v>
@@ -23205,7 +23097,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.826432021541212</v>
+        <v>1.82894533605997</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.713839934842122</v>
@@ -23294,7 +23186,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.828702736689033</v>
+        <v>1.827671990074708</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.081670353798057</v>
@@ -23383,7 +23275,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.840845570935149</v>
+        <v>1.835508662530411</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.277830480906553</v>
@@ -23472,7 +23364,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.836919547339139</v>
+        <v>1.836014663039873</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.780328478272117</v>
@@ -23561,7 +23453,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.838908080759768</v>
+        <v>1.839001404438829</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.434764022362357</v>
@@ -23650,7 +23542,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.841245731078681</v>
+        <v>1.838138811286789</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.054335674484312</v>
@@ -23739,7 +23631,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.84861335399203</v>
+        <v>1.842353693696498</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.068972240283928</v>
@@ -23828,7 +23720,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.858882957956715</v>
+        <v>1.854733061086592</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.784939213836245</v>
@@ -23917,7 +23809,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.850814377114489</v>
+        <v>1.850879777857998</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.465036812870519</v>
@@ -24006,7 +23898,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.852010430825506</v>
+        <v>1.850450369571465</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.090035518431661</v>
@@ -24095,7 +23987,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.858255610675182</v>
+        <v>1.851291910277171</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.048322086146996</v>
@@ -24184,7 +24076,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.844360976792121</v>
+        <v>1.837837578633617</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.006294908850144</v>
@@ -24273,7 +24165,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.840485510709606</v>
+        <v>1.831862631848569</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.027736076412074</v>
@@ -24362,7 +24254,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.833437932113855</v>
+        <v>1.827285898358431</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.099672968503961</v>
@@ -24451,7 +24343,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.833407827877898</v>
+        <v>1.828810830223833</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.212134857870735</v>
@@ -24540,7 +24432,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.823612069886121</v>
+        <v>1.822087698961523</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.141483200239374</v>
@@ -24629,7 +24521,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.820174767657009</v>
+        <v>1.827370895027404</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.864488611246257</v>
@@ -24718,7 +24610,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.821193412312887</v>
+        <v>1.823160521581162</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.820738073706561</v>
@@ -24807,7 +24699,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.811928024731248</v>
+        <v>1.814749031269987</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.008757639296184</v>
@@ -24896,7 +24788,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.822846152950882</v>
+        <v>1.824341187079997</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.286191844865194</v>
@@ -24985,7 +24877,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.823924984162202</v>
+        <v>1.830254988983638</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.885919258194127</v>
@@ -25074,7 +24966,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.825136915344182</v>
+        <v>1.831447234553492</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.101157622111409</v>
@@ -25163,7 +25055,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.827107101247841</v>
+        <v>1.829737165308756</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.095926206093086</v>
@@ -25252,7 +25144,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.835368052514733</v>
+        <v>1.840293044671232</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.119619863339195</v>
@@ -25341,7 +25233,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.836189690577964</v>
+        <v>1.845416946112755</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.124808687470863</v>
@@ -25430,7 +25322,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.83389368954195</v>
+        <v>1.844471683336478</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.137879123667877</v>
@@ -25519,7 +25411,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.833804860921964</v>
+        <v>1.844663979447089</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.585205081693889</v>
@@ -25608,7 +25500,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.825253651861998</v>
+        <v>1.841198993896284</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.360554730767255</v>
@@ -25697,7 +25589,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.835500902240749</v>
+        <v>1.848804389853324</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.74902898436779</v>
@@ -25786,7 +25678,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.834859537893581</v>
+        <v>1.848327042843299</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.391584176554173</v>
@@ -25875,7 +25767,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.843568512312405</v>
+        <v>1.85145712609017</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.574011196077329</v>
@@ -25964,7 +25856,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.842701215799492</v>
+        <v>1.847839617263724</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.736732852090229</v>
@@ -26053,7 +25945,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.845214975634529</v>
+        <v>1.854957007866697</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.724954874744947</v>
@@ -26142,7 +26034,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.8561142963385</v>
+        <v>1.865668556235804</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.938867605417575</v>
@@ -26231,7 +26123,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.846699978255193</v>
+        <v>1.856653034734354</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.941901845063723</v>
@@ -26320,7 +26212,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.835252096936778</v>
+        <v>1.839604562553037</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.019283453027459</v>
@@ -26409,7 +26301,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.841578769789224</v>
+        <v>1.846771834221615</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.768379329159346</v>
@@ -26498,7 +26390,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.785336341232735</v>
+        <v>1.797911392920541</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.728829320323243</v>
@@ -26587,7 +26479,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.779614486359909</v>
+        <v>1.793547331502499</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.665582508240592</v>
@@ -26676,7 +26568,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.761192090014539</v>
+        <v>1.769160768213101</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.629793511817107</v>
@@ -26765,7 +26657,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.759944175814881</v>
+        <v>1.763974879921325</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.764320748899141</v>
@@ -26854,7 +26746,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.771805333660864</v>
+        <v>1.769618480915613</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.718975126234016</v>
@@ -26943,7 +26835,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.780782741605073</v>
+        <v>1.772916111236796</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.66313795848134</v>
@@ -27032,7 +26924,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.785010289084341</v>
+        <v>1.777032410318434</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.585008467299677</v>
@@ -27121,7 +27013,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.781969577487392</v>
+        <v>1.773596095764928</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.681683991951673</v>
@@ -27210,7 +27102,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.788671497573637</v>
+        <v>1.777147920504357</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.675067195970751</v>
@@ -27299,7 +27191,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.78576325835717</v>
+        <v>1.776812386651225</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.702832783274215</v>
@@ -27388,7 +27280,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.788090316957942</v>
+        <v>1.771646149562252</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.693620240844591</v>
@@ -27477,7 +27369,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.78263558484583</v>
+        <v>1.768042110507464</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.753337830303055</v>
@@ -27566,7 +27458,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.788293049480326</v>
+        <v>1.77385623563654</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.772196334663158</v>
@@ -27655,7 +27547,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.797975597545236</v>
+        <v>1.782589426693613</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.735974609415929</v>
@@ -27744,7 +27636,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.784701742015172</v>
+        <v>1.766350496516051</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.70497455994683</v>
@@ -27833,7 +27725,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.836437945260899</v>
+        <v>1.80520155252948</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.378595236631524</v>
@@ -27922,7 +27814,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.833520944267159</v>
+        <v>1.798994775585332</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.987271758292341</v>
@@ -28011,7 +27903,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.85403806796279</v>
+        <v>1.822344699542946</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.715100086085944</v>
@@ -28100,7 +27992,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.863089899067377</v>
+        <v>1.833343375409228</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.549923059229375</v>
@@ -28189,7 +28081,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.863358885522482</v>
+        <v>1.835232895059284</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.682065246736797</v>
@@ -28278,7 +28170,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.865070511062715</v>
+        <v>1.839979776031418</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.509230614130318</v>
@@ -28367,7 +28259,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.8555686346024</v>
+        <v>1.830911500228809</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.690658347319068</v>
@@ -28653,7 +28545,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.686746557225056</v>
+        <v>1.691474639528836</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.816744484711487</v>
@@ -28742,7 +28634,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.689227190523799</v>
+        <v>1.686009168685957</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.429513966189417</v>
@@ -28831,7 +28723,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.714505272657583</v>
+        <v>1.701923488841223</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.109225122295436</v>
@@ -28920,7 +28812,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.700509993101402</v>
+        <v>1.695690942237994</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.112261332860674</v>
@@ -29009,7 +28901,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.705159639496491</v>
+        <v>1.702771811070242</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.93217459066596</v>
@@ -29098,7 +28990,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.701718301474753</v>
+        <v>1.704725290755537</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.079035919669884</v>
@@ -29187,7 +29079,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.73700564094798</v>
+        <v>1.742586794528119</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.515168670964264</v>
@@ -29276,7 +29168,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.711793810742266</v>
+        <v>1.718106553698422</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.916697178142897</v>
@@ -29365,7 +29257,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.709361924402173</v>
+        <v>1.719220034784414</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.691811430761469</v>
@@ -29454,7 +29346,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.710720011145604</v>
+        <v>1.717102435415179</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.799815509832769</v>
@@ -29543,7 +29435,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.703502984431127</v>
+        <v>1.715630816763524</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.766148000833532</v>
@@ -29632,7 +29524,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.702219988084111</v>
+        <v>1.712026057324634</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.74199199097021</v>
@@ -29721,7 +29613,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.70224039793862</v>
+        <v>1.709762397813896</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.883622489151102</v>
@@ -29810,7 +29702,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.686213869348423</v>
+        <v>1.690456497417746</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.645844514378359</v>
@@ -29899,7 +29791,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.678665914259487</v>
+        <v>1.682320042150589</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.620073203067464</v>
@@ -29988,7 +29880,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.650338493500563</v>
+        <v>1.660499418454242</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.783346412241082</v>
@@ -30077,7 +29969,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.635370625429995</v>
+        <v>1.643999037136398</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.904772083515314</v>
@@ -30166,7 +30058,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.636823868029465</v>
+        <v>1.647619818376586</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.701883129747213</v>
@@ -30255,7 +30147,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.647366941654641</v>
+        <v>1.655817260274256</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.634137812230317</v>
@@ -30344,7 +30236,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.644187917189581</v>
+        <v>1.652131636355991</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.852930842688743</v>
@@ -30433,7 +30325,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.641534733024372</v>
+        <v>1.647737172538821</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.791111453948312</v>
@@ -30522,7 +30414,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.64006778226143</v>
+        <v>1.643761874817179</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.660175851229032</v>
@@ -30611,7 +30503,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.662474605731401</v>
+        <v>1.662691515742067</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.641688847487824</v>
@@ -30700,7 +30592,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.660115178211151</v>
+        <v>1.658846445854104</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.802749703717473</v>
@@ -30789,7 +30681,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.651744836610789</v>
+        <v>1.648906314385408</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.624348410315039</v>
@@ -30878,7 +30770,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.65520299070967</v>
+        <v>1.651809469200507</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.769136065769071</v>
@@ -30967,7 +30859,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.643589843610355</v>
+        <v>1.644511035586045</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.698216493307785</v>
@@ -31056,7 +30948,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.643762085363724</v>
+        <v>1.642224190270016</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.85682497436592</v>
@@ -31145,7 +31037,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.638438823677266</v>
+        <v>1.63920586476126</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.703294394123696</v>
@@ -31234,7 +31126,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.636764289354389</v>
+        <v>1.642116533851338</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.693489261043597</v>
@@ -31323,7 +31215,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.605153722275216</v>
+        <v>1.616579937641258</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.363136077906042</v>
@@ -31412,7 +31304,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.613289196653897</v>
+        <v>1.627674020231279</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.554553745102401</v>
@@ -31501,7 +31393,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.617053576694348</v>
+        <v>1.627192053291966</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.506530202481962</v>
@@ -31590,7 +31482,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.605739513644266</v>
+        <v>1.621448753233397</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.398715029817933</v>
@@ -31679,7 +31571,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.609091676087839</v>
+        <v>1.625008286568306</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.442219759439494</v>
@@ -31768,7 +31660,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.613904349569205</v>
+        <v>1.630960153542067</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.573607836856605</v>
@@ -31857,7 +31749,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.614186193712182</v>
+        <v>1.630773180557105</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.426967493325058</v>
@@ -31946,7 +31838,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.61028602257037</v>
+        <v>1.624208762359379</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.415257154845434</v>
@@ -32035,7 +31927,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.605479264452083</v>
+        <v>1.619418087698588</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.447856500815035</v>
@@ -32124,7 +32016,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.582467208779872</v>
+        <v>1.597756952112732</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.341637385840449</v>
@@ -32213,7 +32105,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.574727045207911</v>
+        <v>1.588106999279796</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.412777894334665</v>
@@ -32302,7 +32194,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.577206792046158</v>
+        <v>1.587683712033424</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.428614355318935</v>
@@ -32391,7 +32283,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.576195192338345</v>
+        <v>1.588749637328869</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.488748641678232</v>
@@ -32480,7 +32372,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.596400254747039</v>
+        <v>1.607809352542883</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.339986267601081</v>
@@ -32569,7 +32461,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.607134117039334</v>
+        <v>1.620983701638974</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.226299214857528</v>
@@ -32658,7 +32550,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.658842384820916</v>
+        <v>1.663274575845828</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.213948064101439</v>
@@ -32747,7 +32639,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.668575557323414</v>
+        <v>1.671786441942853</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.192881770780146</v>
@@ -32836,7 +32728,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.674402013048625</v>
+        <v>1.675908366344482</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.799668012993026</v>
@@ -32925,7 +32817,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.680326589607213</v>
+        <v>1.680412014448329</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.924090943412812</v>
@@ -33014,7 +32906,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.679253020400931</v>
+        <v>1.676793551669979</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.220541543559623</v>
@@ -33103,7 +32995,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.673523215476794</v>
+        <v>1.667694156053434</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.196278909121277</v>
@@ -33192,7 +33084,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.671215845667799</v>
+        <v>1.666992161740299</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.984341727192092</v>
@@ -33281,7 +33173,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.6825416198459</v>
+        <v>1.675666272743613</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.213102580276965</v>
@@ -33370,7 +33262,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.669984265679571</v>
+        <v>1.662785980207225</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.005371995183633</v>
@@ -33459,7 +33351,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.705037831123145</v>
+        <v>1.695812650094172</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.684283015206539</v>
@@ -33548,7 +33440,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.700530194950552</v>
+        <v>1.699257732222635</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.798693974908505</v>
@@ -33637,7 +33529,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.706207642181049</v>
+        <v>1.699748445777545</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.8178233698444</v>
@@ -33726,7 +33618,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.695361256689058</v>
+        <v>1.692899110626516</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.02324756642205</v>
@@ -33815,7 +33707,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.701394081027211</v>
+        <v>1.696744206291924</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.529724425107438</v>
@@ -33904,7 +33796,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.686729691611759</v>
+        <v>1.681326128691588</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.298474614454979</v>
@@ -33993,7 +33885,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.663664545181824</v>
+        <v>1.660008906647189</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.033927402698821</v>
@@ -34279,7 +34171,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.71042545224534</v>
+        <v>1.74466477890582</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.594942961409937</v>
@@ -34368,7 +34260,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.728688780621642</v>
+        <v>1.762976786006142</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.465372594870403</v>
@@ -34457,7 +34349,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.756123166229986</v>
+        <v>1.794677345784706</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.745827297315548</v>
@@ -34546,7 +34438,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.759455288216075</v>
+        <v>1.797617524900389</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.500828511457264</v>
@@ -34635,7 +34527,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.805055181029448</v>
+        <v>1.839646384028035</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.555407461958552</v>
@@ -34724,7 +34616,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.815936586352559</v>
+        <v>1.850770716803642</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.665543559416116</v>
@@ -34813,7 +34705,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.870681498143178</v>
+        <v>1.907323755007935</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.735452632826521</v>
@@ -34902,7 +34794,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.875482265703222</v>
+        <v>1.90822549218533</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.941270553843717</v>
@@ -34991,7 +34883,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.879983317383953</v>
+        <v>1.91185690689754</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.776508753650475</v>
@@ -35080,7 +34972,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.884300615465876</v>
+        <v>1.914187969730684</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.195321665691501</v>
@@ -35169,7 +35061,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.877040489752302</v>
+        <v>1.911600495969709</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.444040652446173</v>
@@ -35258,7 +35150,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.879307183607833</v>
+        <v>1.909640685417828</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.472029601922683</v>
@@ -35347,7 +35239,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.876860258137808</v>
+        <v>1.908347442314747</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.40801360474233</v>
@@ -35436,7 +35328,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.798603324661793</v>
+        <v>1.838825190353289</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.278362207930937</v>
@@ -35525,7 +35417,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.774051691546529</v>
+        <v>1.826830535256416</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.332849831515254</v>
@@ -35614,7 +35506,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.791511828815193</v>
+        <v>1.838923100474269</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.402776820234175</v>
@@ -35703,7 +35595,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.799336475708514</v>
+        <v>1.849167428648105</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.330323369370452</v>
@@ -35792,7 +35684,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.787103529043941</v>
+        <v>1.83447242422562</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.385617705592168</v>
@@ -35881,7 +35773,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.788006115029708</v>
+        <v>1.837140667632674</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.357786892849969</v>
@@ -35970,7 +35862,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.763469064639915</v>
+        <v>1.809552348233231</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.329933002046651</v>
@@ -36059,7 +35951,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.762187247875631</v>
+        <v>1.805478355422656</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.327618446793714</v>
@@ -36148,7 +36040,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.760018120453053</v>
+        <v>1.802294033254432</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.319698915839018</v>
@@ -36237,7 +36129,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.761634373902809</v>
+        <v>1.806062892111466</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.323935925966024</v>
@@ -36326,7 +36218,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.762173057331273</v>
+        <v>1.807698957458096</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.321272360245488</v>
@@ -36415,7 +36307,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.76572185100373</v>
+        <v>1.811452624726561</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.335892053767768</v>
@@ -36504,7 +36396,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.771571454233987</v>
+        <v>1.816298108605393</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.305274776682492</v>
@@ -36593,7 +36485,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.778590766273297</v>
+        <v>1.823590389634426</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.33604363333955</v>
@@ -36682,7 +36574,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.784003688367048</v>
+        <v>1.825420403522874</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.406533498539593</v>
@@ -36771,7 +36663,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.84082769803941</v>
+        <v>1.868078317148353</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.884686413451831</v>
@@ -36860,7 +36752,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.843743300801346</v>
+        <v>1.865812095718318</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.18444112384004</v>
@@ -36949,7 +36841,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.841452247626707</v>
+        <v>1.866235747379608</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.960286712086406</v>
@@ -37038,7 +36930,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.840373334340799</v>
+        <v>1.859186558768933</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.916582719101469</v>
@@ -37127,7 +37019,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.851633239118618</v>
+        <v>1.8687522882296</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.085173935697603</v>
@@ -37216,7 +37108,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.861466860399148</v>
+        <v>1.87455181438117</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.060985224981259</v>
@@ -37305,7 +37197,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.886565714052795</v>
+        <v>1.901320839845832</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.269146003537354</v>
@@ -37394,7 +37286,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.887365082460404</v>
+        <v>1.901791946377752</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.202235083190682</v>
@@ -37483,7 +37375,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.886773731355166</v>
+        <v>1.89767485541173</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.5714479521331</v>
@@ -37572,7 +37464,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.887934397906854</v>
+        <v>1.896204939932623</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.388994832775269</v>
@@ -37661,7 +37553,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.886146388476637</v>
+        <v>1.894663110517304</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.614725398602433</v>
@@ -37750,7 +37642,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.832861228838838</v>
+        <v>1.848165190505719</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.889500453830469</v>
@@ -37839,7 +37731,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.828647264794635</v>
+        <v>1.843078722511957</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.863681198098815</v>
@@ -37928,7 +37820,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.818967831980593</v>
+        <v>1.833845580657564</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.889780974824712</v>
@@ -38017,7 +37909,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.819496888606764</v>
+        <v>1.831761253683464</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.734957564949357</v>
@@ -38106,7 +37998,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.847378723531091</v>
+        <v>1.853036557453144</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.80711866425632</v>
@@ -38195,7 +38087,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.857148961364216</v>
+        <v>1.862911160102313</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.846676447486166</v>
@@ -38284,7 +38176,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.859497599308804</v>
+        <v>1.864747106261574</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.786903328039172</v>
@@ -38373,7 +38265,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.855744158933916</v>
+        <v>1.864779047559736</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.703298891166527</v>
@@ -38462,7 +38354,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.841835693573002</v>
+        <v>1.850205857339237</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.809739875885225</v>
@@ -38551,7 +38443,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.842829163133721</v>
+        <v>1.851537525334136</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.88675031239552</v>
@@ -38640,7 +38532,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.838632036369217</v>
+        <v>1.844662507166235</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.708444663691797</v>
@@ -38729,7 +38621,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.838470780677846</v>
+        <v>1.846531776786154</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.910422535492139</v>
@@ -38818,7 +38710,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.842738799908295</v>
+        <v>1.853218619622931</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.802367933368669</v>
@@ -38907,7 +38799,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.847020263621417</v>
+        <v>1.85410528529503</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.686145429121894</v>
@@ -38996,7 +38888,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.833118274331389</v>
+        <v>1.834959479805194</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.908568286091514</v>
@@ -39085,7 +38977,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.879626142197929</v>
+        <v>1.875259150228572</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.265990133835347</v>
@@ -39174,7 +39066,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.883632551375425</v>
+        <v>1.880333861622692</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.177656771496882</v>
@@ -39263,7 +39155,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.891585609993728</v>
+        <v>1.890402184297426</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.045734153822601</v>
@@ -39352,7 +39244,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.887020535583468</v>
+        <v>1.893566697301236</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.250787132956462</v>
@@ -39441,7 +39333,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.888351845445508</v>
+        <v>1.896528606965256</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.322297902412701</v>
@@ -39530,7 +39422,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.892557050617379</v>
+        <v>1.901951283062074</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.205911576345072</v>
@@ -39619,7 +39511,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.877763626179022</v>
+        <v>1.884709533477807</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.120361892320215</v>
